--- a/LDR_Linear/calculation.xlsx
+++ b/LDR_Linear/calculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bourlot\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\BE_Capteurs\LDR_Linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D4A0CDA-2574-4970-AA4C-46897056FF9B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214512D-AC88-4BC3-BADE-ECF80442FEBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3FFA3FBB-4D82-42F0-954D-A9ED829F37B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>vin1</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>R1|R2</t>
+  </si>
+  <si>
+    <t>R(kohm)</t>
+  </si>
+  <si>
+    <t>C(nf)</t>
   </si>
 </sst>
 </file>
@@ -92,8 +98,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -135,8 +141,8 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,15 +458,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7603B539-C359-4598-924D-739ACAE2B25D}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +474,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -476,7 +482,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -484,7 +490,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -492,7 +498,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -500,8 +506,14 @@
         <f>(B4-B2)/(B3-B1)</f>
         <v>2.7250000000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -509,8 +521,18 @@
         <f>B2-B6*B1</f>
         <v>-1.2625</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <f>2.2*G7*1000*H7*10^-9</f>
+        <v>1.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -524,7 +546,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -536,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -547,7 +569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -556,7 +578,7 @@
         <v>15.396039603960396</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -568,7 +590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -640,6 +662,12 @@
       <c r="C22" s="3">
         <f>(B22-B7)/B7</f>
         <v>1.2291941268430223E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>1/(2*PI()*30*10/1000)</f>
+        <v>0.53051647697298443</v>
       </c>
     </row>
   </sheetData>

--- a/LDR_Linear/calculation.xlsx
+++ b/LDR_Linear/calculation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20369"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\BE_Capteurs\LDR_Linear\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5214512D-AC88-4BC3-BADE-ECF80442FEBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7878375C-D651-473B-B2D9-9E82DDDBBE48}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{3FFA3FBB-4D82-42F0-954D-A9ED829F37B9}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>vin1</t>
   </si>
@@ -39,12 +39,6 @@
     <t>vout2</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>Rg</t>
   </si>
   <si>
@@ -91,6 +85,33 @@
   </si>
   <si>
     <t>C(nf)</t>
+  </si>
+  <si>
+    <t>desired m</t>
+  </si>
+  <si>
+    <t>desired b</t>
+  </si>
+  <si>
+    <t>error in %</t>
+  </si>
+  <si>
+    <t>input min</t>
+  </si>
+  <si>
+    <t>output min</t>
+  </si>
+  <si>
+    <t>input max</t>
+  </si>
+  <si>
+    <t>output max</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>offset</t>
   </si>
 </sst>
 </file>
@@ -138,11 +159,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -461,7 +485,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,6 +497,9 @@
       <c r="B1">
         <v>0.5</v>
       </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -481,6 +508,9 @@
       <c r="B2">
         <v>0.1</v>
       </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -489,6 +519,9 @@
       <c r="B3">
         <v>4.5</v>
       </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -497,30 +530,39 @@
       <c r="B4">
         <v>11</v>
       </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="B6">
         <f>(B4-B2)/(B3-B1)</f>
         <v>2.7250000000000001</v>
       </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B7">
         <f>B2-B6*B1</f>
         <v>-1.2625</v>
       </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
       <c r="G7">
         <v>10</v>
       </c>
@@ -534,44 +576,44 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>100</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10">
         <f>B9*(B6-1)</f>
         <v>172.5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2">
         <f>(B11*B10/B9/ABS(B7))-1</f>
@@ -580,67 +622,67 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1">
         <f>B14*B12</f>
         <v>15.396039603960396</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>172</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <f>B18*B14/(B14+B18)</f>
         <v>0.9375</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <f>(B17+B9+B19)/(B9+B19)</f>
@@ -650,10 +692,13 @@
         <f>(B21-B6)/B6</f>
         <v>-7.6973329167495256E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B22">
         <f>-B11*B14/(B14+B18)*(B17/(B9+B19))</f>
@@ -663,14 +708,18 @@
         <f>(B22-B7)/B7</f>
         <v>1.2291941268430223E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32">
         <f>1/(2*PI()*30*10/1000)</f>
         <v>0.53051647697298443</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D21:D22"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>